--- a/inst/extdata/PDexports(multiple_files)/T2_BLCA/240517_BCa_T2_6.xlsx
+++ b/inst/extdata/PDexports(multiple_files)/T2_BLCA/240517_BCa_T2_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedma\OneDrive\Έγγραφα\itern\ProtE\inst\extdata\PDexports(multiple_files)\T2_BLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0F9BE26-B5B7-4642-B7FB-0CAB2DA5BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED37B3-B837-4FBE-A0F8-5B38BE87B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t># AAs</t>
   </si>
@@ -64,12 +64,6 @@
     <t>2,4-dienoyl-CoA reductase, mitochondrial OS=Homo sapiens GN=DECR1 PE=1 SV=1 - [DECR_HUMAN]</t>
   </si>
   <si>
-    <t>3-hydroxyacyl-CoA dehydrogenase type-2 OS=Homo sapiens GN=HSD17B10 PE=1 SV=3 - [HCD2_HUMAN]</t>
-  </si>
-  <si>
-    <t>4-trimethylaminobutyraldehyde dehydrogenase OS=Homo sapiens GN=ALDH9A1 PE=1 SV=3 - [AL9A1_HUMAN]</t>
-  </si>
-  <si>
     <t>60 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPD1 PE=1 SV=2 - [CH60_HUMAN]</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>ADP-ribosylation factor 3 OS=Homo sapiens GN=ARF3 PE=1 SV=2 - [ARF3_HUMAN]</t>
   </si>
   <si>
-    <t>ADP-ribosylation factor 4 OS=Homo sapiens GN=ARF4 PE=1 SV=3 - [ARF4_HUMAN]</t>
-  </si>
-  <si>
     <t>ADP/ATP translocase 1 OS=Homo sapiens GN=SLC25A4 PE=1 SV=4 - [ADT1_HUMAN]</t>
   </si>
   <si>
@@ -94,18 +85,12 @@
     <t>ADP/ATP translocase 3 OS=Homo sapiens GN=SLC25A6 PE=1 SV=4 - [ADT3_HUMAN]</t>
   </si>
   <si>
-    <t>ATP synthase subunit O, mitochondrial OS=Homo sapiens GN=ATP5O PE=1 SV=1 - [ATPO_HUMAN]</t>
-  </si>
-  <si>
     <t>ATP synthase subunit alpha, mitochondrial OS=Homo sapiens GN=ATP5A1 PE=1 SV=1 - [ATPA_HUMAN]</t>
   </si>
   <si>
     <t>ATP synthase subunit beta, mitochondrial OS=Homo sapiens GN=ATP5B PE=1 SV=3 - [ATPB_HUMAN]</t>
   </si>
   <si>
-    <t>ATP synthase subunit delta, mitochondrial OS=Homo sapiens GN=ATP5D PE=1 SV=2 - [ATPD_HUMAN]</t>
-  </si>
-  <si>
     <t>ATP synthase subunit gamma, mitochondrial OS=Homo sapiens GN=ATP5C1 PE=1 SV=1 - [ATPG_HUMAN]</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>Alpha-actinin-4 OS=Homo sapiens GN=ACTN4 PE=1 SV=2 - [ACTN4_HUMAN]</t>
   </si>
   <si>
-    <t>Alpha-aminoadipic semialdehyde dehydrogenase OS=Homo sapiens GN=ALDH7A1 PE=1 SV=5 - [AL7A1_HUMAN]</t>
-  </si>
-  <si>
     <t>Alpha-enolase OS=Homo sapiens GN=ENO1 PE=1 SV=2 - [ENOA_HUMAN]</t>
   </si>
   <si>
@@ -187,12 +169,6 @@
     <t>Brain acid soluble protein 1 OS=Homo sapiens GN=BASP1 PE=1 SV=2 - [BASP1_HUMAN]</t>
   </si>
   <si>
-    <t>Calmodulin OS=Homo sapiens GN=CALM1 PE=1 SV=2 - [CALM_HUMAN]</t>
-  </si>
-  <si>
-    <t>Calnexin OS=Homo sapiens GN=CANX PE=1 SV=2 - [CALX_HUMAN]</t>
-  </si>
-  <si>
     <t>Calreticulin OS=Homo sapiens GN=CALR PE=1 SV=1 - [CALR_HUMAN]</t>
   </si>
   <si>
@@ -211,21 +187,9 @@
     <t>Cathepsin D OS=Homo sapiens GN=CTSD PE=1 SV=1 - [CATD_HUMAN]</t>
   </si>
   <si>
-    <t>Ceruloplasmin OS=Homo sapiens GN=CP PE=1 SV=1 - [CERU_HUMAN]</t>
-  </si>
-  <si>
-    <t>Chloride intracellular channel protein 1 OS=Homo sapiens GN=CLIC1 PE=1 SV=4 - [CLIC1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Citrate synthase, mitochondrial OS=Homo sapiens GN=CS PE=1 SV=2 - [CISY_HUMAN]</t>
-  </si>
-  <si>
     <t>Clathrin heavy chain 1 OS=Homo sapiens GN=CLTC PE=1 SV=5 - [CLH1_HUMAN]</t>
   </si>
   <si>
-    <t>Cofilin-1 OS=Homo sapiens GN=CFL1 PE=1 SV=3 - [COF1_HUMAN]</t>
-  </si>
-  <si>
     <t>Collagen alpha-1(I) chain OS=Homo sapiens GN=COL1A1 PE=1 SV=5 - [CO1A1_HUMAN]</t>
   </si>
   <si>
@@ -253,33 +217,15 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Creatine kinase B-type OS=Homo sapiens GN=CKB PE=1 SV=1 - [KCRB_HUMAN]</t>
-  </si>
-  <si>
     <t>Cytochrome c oxidase subunit 4 isoform 1, mitochondrial OS=Homo sapiens GN=COX4I1 PE=1 SV=1 - [COX41_HUMAN]</t>
   </si>
   <si>
-    <t>Cytoskeleton-associated protein 4 OS=Homo sapiens GN=CKAP4 PE=1 SV=2 - [CKAP4_HUMAN]</t>
-  </si>
-  <si>
     <t>Cytosolic non-specific dipeptidase OS=Homo sapiens GN=CNDP2 PE=1 SV=2 - [CNDP2_HUMAN]</t>
   </si>
   <si>
-    <t>Decorin OS=Homo sapiens GN=DCN PE=1 SV=1 - [PGS2_HUMAN]</t>
-  </si>
-  <si>
     <t>Dehydrogenase/reductase SDR family member 7 OS=Homo sapiens GN=DHRS7 PE=1 SV=1 - [DHRS7_HUMAN]</t>
   </si>
   <si>
-    <t>Delta(3,5)-Delta(2,4)-dienoyl-CoA isomerase, mitochondrial OS=Homo sapiens GN=ECH1 PE=1 SV=2 - [ECH1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Delta-1-pyrroline-5-carboxylate dehydrogenase, mitochondrial OS=Homo sapiens GN=ALDH4A1 PE=1 SV=3 - [AL4A1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Delta-1-pyrroline-5-carboxylate synthase OS=Homo sapiens GN=ALDH18A1 PE=1 SV=2 - [P5CS_HUMAN]</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -289,9 +235,6 @@
     <t>Dipeptidyl peptidase 2 OS=Homo sapiens GN=DPP7 PE=1 SV=3 - [DPP2_HUMAN]</t>
   </si>
   <si>
-    <t>Electron transfer flavoprotein subunit beta OS=Homo sapiens GN=ETFB PE=1 SV=3 - [ETFB_HUMAN]</t>
-  </si>
-  <si>
     <t>Elongation factor 1-alpha 1 OS=Homo sapiens GN=EEF1A1 PE=1 SV=1 - [EF1A1_HUMAN]</t>
   </si>
   <si>
@@ -310,15 +253,6 @@
     <t>Enoyl-CoA hydratase, mitochondrial OS=Homo sapiens GN=ECHS1 PE=1 SV=4 - [ECHM_HUMAN]</t>
   </si>
   <si>
-    <t>Eukaryotic initiation factor 4A-I OS=Homo sapiens GN=EIF4A1 PE=1 SV=1 - [IF4A1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Eukaryotic initiation factor 4A-II OS=Homo sapiens GN=EIF4A2 PE=1 SV=2 - [IF4A2_HUMAN]</t>
-  </si>
-  <si>
-    <t>Ezrin OS=Homo sapiens GN=EZR PE=1 SV=4 - [EZRI_HUMAN]</t>
-  </si>
-  <si>
     <t>Fatty acid synthase OS=Homo sapiens GN=FASN PE=1 SV=3 - [FAS_HUMAN]</t>
   </si>
   <si>
@@ -337,9 +271,6 @@
     <t>Filamin-A OS=Homo sapiens GN=FLNA PE=1 SV=4 - [FLNA_HUMAN]</t>
   </si>
   <si>
-    <t>Filamin-B OS=Homo sapiens GN=FLNB PE=1 SV=2 - [FLNB_HUMAN]</t>
-  </si>
-  <si>
     <t>Flavin reductase (NADPH) OS=Homo sapiens GN=BLVRB PE=1 SV=3 - [BLVRB_HUMAN]</t>
   </si>
   <si>
@@ -364,12 +295,6 @@
     <t>Glyceraldehyde-3-phosphate dehydrogenase OS=Homo sapiens GN=GAPDH PE=1 SV=3 - [G3P_HUMAN]</t>
   </si>
   <si>
-    <t>HLA class I histocompatibility antigen, B-7 alpha chain OS=Homo sapiens GN=HLA-B PE=1 SV=3 - [1B07_HUMAN]</t>
-  </si>
-  <si>
-    <t>HLA class II histocompatibility antigen, DR alpha chain OS=Homo sapiens GN=HLA-DRA PE=1 SV=1 - [DRA_HUMAN]</t>
-  </si>
-  <si>
     <t>Haptoglobin OS=Homo sapiens GN=HP PE=1 SV=1 - [HPT_HUMAN]</t>
   </si>
   <si>
@@ -403,15 +328,6 @@
     <t>Hemopexin OS=Homo sapiens GN=HPX PE=1 SV=2 - [HEMO_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoprotein K OS=Homo sapiens GN=HNRNPK PE=1 SV=1 - [HNRPK_HUMAN]</t>
-  </si>
-  <si>
-    <t>Heterogeneous nuclear ribonucleoprotein U OS=Homo sapiens GN=HNRNPU PE=1 SV=6 - [HNRPU_HUMAN]</t>
-  </si>
-  <si>
-    <t>Hexokinase-1 OS=Homo sapiens GN=HK1 PE=1 SV=3 - [HXK1_HUMAN]</t>
-  </si>
-  <si>
     <t>Histone H1.2 OS=Homo sapiens GN=HIST1H1C PE=1 SV=2 - [H12_HUMAN]</t>
   </si>
   <si>
@@ -466,18 +382,6 @@
     <t>Keratin, type II cytoskeletal 8 OS=Homo sapiens GN=KRT8 PE=1 SV=7 - [K2C8_HUMAN]</t>
   </si>
   <si>
-    <t>L-xylulose reductase OS=Homo sapiens GN=DCXR PE=1 SV=2 - [DCXR_HUMAN]</t>
-  </si>
-  <si>
-    <t>Leucine-rich PPR motif-containing protein, mitochondrial OS=Homo sapiens GN=LRPPRC PE=1 SV=3 - [LPPRC_HUMAN]</t>
-  </si>
-  <si>
-    <t>Long-chain-fatty-acid--CoA ligase 1 OS=Homo sapiens GN=ACSL1 PE=1 SV=1 - [ACSL1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Lumican OS=Homo sapiens GN=LUM PE=1 SV=2 - [LUM_HUMAN]</t>
-  </si>
-  <si>
     <t>Lysosome membrane protein 2 OS=Homo sapiens GN=SCARB2 PE=1 SV=2 - [SCRB2_HUMAN]</t>
   </si>
   <si>
@@ -487,9 +391,6 @@
     <t>MW [kDa]</t>
   </si>
   <si>
-    <t>Malate dehydrogenase, cytoplasmic OS=Homo sapiens GN=MDH1 PE=1 SV=4 - [MDHC_HUMAN]</t>
-  </si>
-  <si>
     <t>Malate dehydrogenase, mitochondrial OS=Homo sapiens GN=MDH2 PE=1 SV=3 - [MDHM_HUMAN]</t>
   </si>
   <si>
@@ -502,9 +403,6 @@
     <t>Myosin regulatory light chain 12A OS=Homo sapiens GN=MYL12A PE=1 SV=2 - [ML12A_HUMAN]</t>
   </si>
   <si>
-    <t>Myosin-11 OS=Homo sapiens GN=MYH11 PE=1 SV=3 - [MYH11_HUMAN]</t>
-  </si>
-  <si>
     <t>Myosin-9 OS=Homo sapiens GN=MYH9 PE=1 SV=4 - [MYH9_HUMAN]</t>
   </si>
   <si>
@@ -517,27 +415,12 @@
     <t>Nicotinamide phosphoribosyltransferase OS=Homo sapiens GN=NAMPT PE=1 SV=1 - [NAMPT_HUMAN]</t>
   </si>
   <si>
-    <t>Nucleoside diphosphate kinase A OS=Homo sapiens GN=NME1 PE=1 SV=1 - [NDKA_HUMAN]</t>
-  </si>
-  <si>
-    <t>O00299</t>
-  </si>
-  <si>
     <t>O43707</t>
   </si>
   <si>
     <t>O60814</t>
   </si>
   <si>
-    <t>O75369</t>
-  </si>
-  <si>
-    <t>O75390</t>
-  </si>
-  <si>
-    <t>O75396</t>
-  </si>
-  <si>
     <t>O75874</t>
   </si>
   <si>
@@ -547,9 +430,6 @@
     <t>P00367</t>
   </si>
   <si>
-    <t>P00450</t>
-  </si>
-  <si>
     <t>P00505</t>
   </si>
   <si>
@@ -589,12 +469,6 @@
     <t>P01876</t>
   </si>
   <si>
-    <t>P01889</t>
-  </si>
-  <si>
-    <t>P01903</t>
-  </si>
-  <si>
     <t>P02042</t>
   </si>
   <si>
@@ -640,18 +514,12 @@
     <t>P04792</t>
   </si>
   <si>
-    <t>P05023</t>
-  </si>
-  <si>
     <t>P05091</t>
   </si>
   <si>
     <t>P05141</t>
   </si>
   <si>
-    <t>P05166</t>
-  </si>
-  <si>
     <t>P05783</t>
   </si>
   <si>
@@ -670,15 +538,9 @@
     <t>P06744</t>
   </si>
   <si>
-    <t>P06753</t>
-  </si>
-  <si>
     <t>P07237</t>
   </si>
   <si>
-    <t>P07288</t>
-  </si>
-  <si>
     <t>P07339</t>
   </si>
   <si>
@@ -688,9 +550,6 @@
     <t>P07437</t>
   </si>
   <si>
-    <t>P07585</t>
-  </si>
-  <si>
     <t>P07686</t>
   </si>
   <si>
@@ -763,18 +622,12 @@
     <t>P12236</t>
   </si>
   <si>
-    <t>P12277</t>
-  </si>
-  <si>
     <t>P12814</t>
   </si>
   <si>
     <t>P13073</t>
   </si>
   <si>
-    <t>P13489</t>
-  </si>
-  <si>
     <t>P13639</t>
   </si>
   <si>
@@ -796,30 +649,18 @@
     <t>P15309</t>
   </si>
   <si>
-    <t>P15311</t>
-  </si>
-  <si>
-    <t>P15531</t>
-  </si>
-  <si>
     <t>P16403</t>
   </si>
   <si>
     <t>P17661</t>
   </si>
   <si>
-    <t>P18085</t>
-  </si>
-  <si>
     <t>P18206</t>
   </si>
   <si>
     <t>P19105</t>
   </si>
   <si>
-    <t>P19367</t>
-  </si>
-  <si>
     <t>P21333</t>
   </si>
   <si>
@@ -829,9 +670,6 @@
     <t>P23284</t>
   </si>
   <si>
-    <t>P23528</t>
-  </si>
-  <si>
     <t>P24752</t>
   </si>
   <si>
@@ -844,15 +682,9 @@
     <t>P27797</t>
   </si>
   <si>
-    <t>P27824</t>
-  </si>
-  <si>
     <t>P29401</t>
   </si>
   <si>
-    <t>P30038</t>
-  </si>
-  <si>
     <t>P30041</t>
   </si>
   <si>
@@ -865,9 +697,6 @@
     <t>P30048</t>
   </si>
   <si>
-    <t>P30049</t>
-  </si>
-  <si>
     <t>P30084</t>
   </si>
   <si>
@@ -892,60 +721,30 @@
     <t>P32119</t>
   </si>
   <si>
-    <t>P33121</t>
-  </si>
-  <si>
-    <t>P34897</t>
-  </si>
-  <si>
     <t>P35232</t>
   </si>
   <si>
     <t>P35579</t>
   </si>
   <si>
-    <t>P35749</t>
-  </si>
-  <si>
     <t>P36542</t>
   </si>
   <si>
-    <t>P37837</t>
-  </si>
-  <si>
-    <t>P38117</t>
-  </si>
-  <si>
     <t>P38646</t>
   </si>
   <si>
-    <t>P40925</t>
-  </si>
-  <si>
     <t>P40926</t>
   </si>
   <si>
     <t>P40939</t>
   </si>
   <si>
-    <t>P42704</t>
-  </si>
-  <si>
     <t>P43490</t>
   </si>
   <si>
-    <t>P45880</t>
-  </si>
-  <si>
-    <t>P48047</t>
-  </si>
-  <si>
     <t>P48735</t>
   </si>
   <si>
-    <t>P49189</t>
-  </si>
-  <si>
     <t>P49257</t>
   </si>
   <si>
@@ -955,9 +754,6 @@
     <t>P49411</t>
   </si>
   <si>
-    <t>P49419</t>
-  </si>
-  <si>
     <t>P49748</t>
   </si>
   <si>
@@ -967,18 +763,12 @@
     <t>P51659</t>
   </si>
   <si>
-    <t>P51884</t>
-  </si>
-  <si>
     <t>P52565</t>
   </si>
   <si>
     <t>P54819</t>
   </si>
   <si>
-    <t>P54886</t>
-  </si>
-  <si>
     <t>P55072</t>
   </si>
   <si>
@@ -994,33 +784,21 @@
     <t>P60709</t>
   </si>
   <si>
-    <t>P60842</t>
-  </si>
-  <si>
     <t>P61019</t>
   </si>
   <si>
     <t>P61026</t>
   </si>
   <si>
-    <t>P61088</t>
-  </si>
-  <si>
     <t>P61204</t>
   </si>
   <si>
     <t>P61604</t>
   </si>
   <si>
-    <t>P61978</t>
-  </si>
-  <si>
     <t>P61981</t>
   </si>
   <si>
-    <t>P62158</t>
-  </si>
-  <si>
     <t>P62258</t>
   </si>
   <si>
@@ -1123,12 +901,6 @@
     <t>Prohibitin-2 OS=Homo sapiens GN=PHB2 PE=1 SV=2 - [PHB2_HUMAN]</t>
   </si>
   <si>
-    <t>Propionyl-CoA carboxylase beta chain, mitochondrial OS=Homo sapiens GN=PCCB PE=1 SV=3 - [PCCB_HUMAN]</t>
-  </si>
-  <si>
-    <t>Prostate-specific antigen OS=Homo sapiens GN=KLK3 PE=1 SV=2 - [KLK3_HUMAN]</t>
-  </si>
-  <si>
     <t>Prostatic acid phosphatase OS=Homo sapiens GN=ACPP PE=1 SV=3 - [PPAP_HUMAN]</t>
   </si>
   <si>
@@ -1138,9 +910,6 @@
     <t>Protein S100-A11 OS=Homo sapiens GN=S100A11 PE=1 SV=2 - [S10AB_HUMAN]</t>
   </si>
   <si>
-    <t>Protein deglycase DJ-1 OS=Homo sapiens GN=PARK7 PE=1 SV=2 - [PARK7_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein disulfide-isomerase A3 OS=Homo sapiens GN=PDIA3 PE=1 SV=4 - [PDIA3_HUMAN]</t>
   </si>
   <si>
@@ -1165,9 +934,6 @@
     <t>Q00610</t>
   </si>
   <si>
-    <t>Q00839</t>
-  </si>
-  <si>
     <t>Q01995</t>
   </si>
   <si>
@@ -1186,18 +952,12 @@
     <t>Q06830</t>
   </si>
   <si>
-    <t>Q07065</t>
-  </si>
-  <si>
     <t>Q09666</t>
   </si>
   <si>
     <t>Q12931</t>
   </si>
   <si>
-    <t>Q13011</t>
-  </si>
-  <si>
     <t>Q13228</t>
   </si>
   <si>
@@ -1210,9 +970,6 @@
     <t>Q14108</t>
   </si>
   <si>
-    <t>Q14240</t>
-  </si>
-  <si>
     <t>Q14697</t>
   </si>
   <si>
@@ -1228,12 +985,6 @@
     <t>Q6S8J3</t>
   </si>
   <si>
-    <t>Q7Z4W1</t>
-  </si>
-  <si>
-    <t>Q8TC12</t>
-  </si>
-  <si>
     <t>Q92928</t>
   </si>
   <si>
@@ -1243,15 +994,9 @@
     <t>Q96KP4</t>
   </si>
   <si>
-    <t>Q99497</t>
-  </si>
-  <si>
     <t>Q99623</t>
   </si>
   <si>
-    <t>Q99714</t>
-  </si>
-  <si>
     <t>Q99798</t>
   </si>
   <si>
@@ -1294,15 +1039,9 @@
     <t>Ras-related protein Rab-7a OS=Homo sapiens GN=RAB7A PE=1 SV=1 - [RAB7A_HUMAN]</t>
   </si>
   <si>
-    <t>Retinol dehydrogenase 11 OS=Homo sapiens GN=RDH11 PE=1 SV=2 - [RDH11_HUMAN]</t>
-  </si>
-  <si>
     <t>Rho GDP-dissociation inhibitor 1 OS=Homo sapiens GN=ARHGDIA PE=1 SV=3 - [GDIR1_HUMAN]</t>
   </si>
   <si>
-    <t>Ribonuclease inhibitor OS=Homo sapiens GN=RNH1 PE=1 SV=2 - [RINI_HUMAN]</t>
-  </si>
-  <si>
     <t>Ribosome-binding protein 1 OS=Homo sapiens GN=RRBP1 PE=1 SV=4 - [RRBP1_HUMAN]</t>
   </si>
   <si>
@@ -1312,18 +1051,12 @@
     <t>Selenium-binding protein 1 OS=Homo sapiens GN=SELENBP1 PE=1 SV=2 - [SBP1_HUMAN]</t>
   </si>
   <si>
-    <t>Serine hydroxymethyltransferase, mitochondrial OS=Homo sapiens GN=SHMT2 PE=1 SV=3 - [GLYM_HUMAN]</t>
-  </si>
-  <si>
     <t>Serotransferrin OS=Homo sapiens GN=TF PE=1 SV=3 - [TRFE_HUMAN]</t>
   </si>
   <si>
     <t>Serum albumin OS=Homo sapiens GN=ALB PE=1 SV=2 - [ALBU_HUMAN]</t>
   </si>
   <si>
-    <t>Sodium/potassium-transporting ATPase subunit alpha-1 OS=Homo sapiens GN=ATP1A1 PE=1 SV=1 - [AT1A1_HUMAN]</t>
-  </si>
-  <si>
     <t>Stress-70 protein, mitochondrial OS=Homo sapiens GN=HSPA9 PE=1 SV=2 - [GRP75_HUMAN]</t>
   </si>
   <si>
@@ -1336,9 +1069,6 @@
     <t>Thioredoxin-dependent peroxide reductase, mitochondrial OS=Homo sapiens GN=PRDX3 PE=1 SV=3 - [PRDX3_HUMAN]</t>
   </si>
   <si>
-    <t>Transaldolase OS=Homo sapiens GN=TALDO1 PE=1 SV=2 - [TALDO_HUMAN]</t>
-  </si>
-  <si>
     <t>Transgelin OS=Homo sapiens GN=TAGLN PE=1 SV=4 - [TAGL_HUMAN]</t>
   </si>
   <si>
@@ -1360,9 +1090,6 @@
     <t>Tropomyosin alpha-1 chain OS=Homo sapiens GN=TPM1 PE=1 SV=2 - [TPM1_HUMAN]</t>
   </si>
   <si>
-    <t>Tropomyosin alpha-3 chain OS=Homo sapiens GN=TPM3 PE=1 SV=2 - [TPM3_HUMAN]</t>
-  </si>
-  <si>
     <t>Tropomyosin alpha-4 chain OS=Homo sapiens GN=TPM4 PE=1 SV=3 - [TPM4_HUMAN]</t>
   </si>
   <si>
@@ -1384,15 +1111,9 @@
     <t>Tubulin beta-4B chain OS=Homo sapiens GN=TUBB4B PE=1 SV=1 - [TBB4B_HUMAN]</t>
   </si>
   <si>
-    <t>Ubiquitin-conjugating enzyme E2 N OS=Homo sapiens GN=UBE2N PE=1 SV=1 - [UBE2N_HUMAN]</t>
-  </si>
-  <si>
     <t>Very long-chain specific acyl-CoA dehydrogenase, mitochondrial OS=Homo sapiens GN=ACADVL PE=1 SV=1 - [ACADV_HUMAN]</t>
   </si>
   <si>
-    <t>Vesicle-trafficking protein SEC22b OS=Homo sapiens GN=SEC22B PE=1 SV=4 - [SC22B_HUMAN]</t>
-  </si>
-  <si>
     <t>Vimentin OS=Homo sapiens GN=VIM PE=1 SV=4 - [VIME_HUMAN]</t>
   </si>
   <si>
@@ -1400,9 +1121,6 @@
   </si>
   <si>
     <t>Voltage-dependent anion-selective channel protein 1 OS=Homo sapiens GN=VDAC1 PE=1 SV=2 - [VDAC1_HUMAN]</t>
-  </si>
-  <si>
-    <t>Voltage-dependent anion-selective channel protein 2 OS=Homo sapiens GN=VDAC2 PE=1 SV=2 - [VDAC2_HUMAN]</t>
   </si>
   <si>
     <t>calc. pI</t>
@@ -1902,10 +1620,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="O231" sqref="A180:O231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1924,16 +1642,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1948,24 +1666,24 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="C2" s="3">
         <v>1559.70374953747</v>
@@ -2000,10 +1718,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3">
         <v>842.20455873012497</v>
@@ -2038,10 +1756,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3">
         <v>807.21340024471294</v>
@@ -2076,10 +1794,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3">
         <v>427.56086170673399</v>
@@ -2114,10 +1832,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>425.29749977588699</v>
@@ -2152,10 +1870,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="C7" s="3">
         <v>366.540508627892</v>
@@ -2190,10 +1908,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>326.11015391349798</v>
@@ -2228,10 +1946,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
         <v>273.933789968491</v>
@@ -2266,10 +1984,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="C10" s="3">
         <v>271.58807480335201</v>
@@ -2304,10 +2022,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3">
         <v>263.63830113411001</v>
@@ -2342,10 +2060,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3">
         <v>261.34921193122898</v>
@@ -2380,10 +2098,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="C13" s="3">
         <v>244.08132064342499</v>
@@ -2418,10 +2136,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <v>230.46512556076101</v>
@@ -2456,10 +2174,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3">
         <v>220.50491166114799</v>
@@ -2494,10 +2212,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>209.430469512939</v>
@@ -2532,10 +2250,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="C17" s="3">
         <v>199.56036353111301</v>
@@ -2570,10 +2288,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3">
         <v>193.80521869659401</v>
@@ -2608,10 +2326,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3">
         <v>185.31384551525099</v>
@@ -2646,10 +2364,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3">
         <v>171.80105769634201</v>
@@ -2684,10 +2402,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>164.94997107982601</v>
@@ -2722,10 +2440,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3">
         <v>163.431756854057</v>
@@ -2760,10 +2478,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3">
         <v>162.796006679535</v>
@@ -2798,10 +2516,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3">
         <v>162.46613132953601</v>
@@ -2836,10 +2554,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3">
         <v>159.61050224304199</v>
@@ -2874,7 +2592,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -2912,10 +2630,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="C27" s="3">
         <v>145.70168924331699</v>
@@ -2950,10 +2668,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="C28" s="3">
         <v>142.89155769348099</v>
@@ -2988,10 +2706,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="C29" s="3">
         <v>142.77550911903401</v>
@@ -3026,10 +2744,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3">
         <v>141.68956387042999</v>
@@ -3064,10 +2782,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C31" s="3">
         <v>135.290556788445</v>
@@ -3102,10 +2820,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3">
         <v>131.88514232635501</v>
@@ -3140,10 +2858,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C33" s="3">
         <v>125.382210493088</v>
@@ -3178,7 +2896,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -3216,10 +2934,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>123.30795943737</v>
@@ -3254,10 +2972,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3">
         <v>121.95926284790001</v>
@@ -3292,10 +3010,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3">
         <v>119.72663593292199</v>
@@ -3330,10 +3048,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>459</v>
+        <v>366</v>
       </c>
       <c r="C38" s="3">
         <v>113.296407103539</v>
@@ -3368,10 +3086,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3">
         <v>112.97062766552</v>
@@ -3406,10 +3124,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="C40" s="3">
         <v>112.667836427689</v>
@@ -3444,10 +3162,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3">
         <v>112.07107532024401</v>
@@ -3482,10 +3200,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3">
         <v>110.631117582321</v>
@@ -3520,10 +3238,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="C43" s="3">
         <v>110.573665738106</v>
@@ -3558,10 +3276,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3">
         <v>107.687184929848</v>
@@ -3596,10 +3314,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3">
         <v>104.24691069126099</v>
@@ -3634,10 +3352,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="C46" s="3">
         <v>103.100106358528</v>
@@ -3672,10 +3390,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C47" s="3">
         <v>100.04966151714299</v>
@@ -3710,10 +3428,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C48" s="3">
         <v>99.543980479240403</v>
@@ -3748,7 +3466,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -3786,10 +3504,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3">
         <v>95.390314340591402</v>
@@ -3824,10 +3542,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3">
         <v>92.240620851516695</v>
@@ -3862,10 +3580,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C52" s="3">
         <v>91.445166707038894</v>
@@ -3900,10 +3618,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3">
         <v>90.997790336608901</v>
@@ -3938,10 +3656,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C54" s="3">
         <v>90.950924873352093</v>
@@ -3976,10 +3694,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C55" s="3">
         <v>90.087818622589097</v>
@@ -4014,10 +3732,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="C56" s="3">
         <v>89.917621254921002</v>
@@ -4052,7 +3770,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -4090,10 +3808,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="C58" s="3">
         <v>88.127434849739103</v>
@@ -4128,10 +3846,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3">
         <v>87.293953776359601</v>
@@ -4166,10 +3884,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C60" s="3">
         <v>86.778378129005404</v>
@@ -4204,10 +3922,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="C61" s="3">
         <v>86.361954092979403</v>
@@ -4242,10 +3960,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C62" s="3">
         <v>84.575680017471299</v>
@@ -4280,10 +3998,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C63" s="3">
         <v>84.132193565368695</v>
@@ -4318,10 +4036,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C64" s="3">
         <v>83.780664443969698</v>
@@ -4356,10 +4074,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3">
         <v>83.703194618225098</v>
@@ -4394,10 +4112,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C66" s="3">
         <v>83.673297166824298</v>
@@ -4432,10 +4150,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>451</v>
+        <v>360</v>
       </c>
       <c r="C67" s="3">
         <v>82.701580882072406</v>
@@ -4470,10 +4188,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C68" s="3">
         <v>82.089262008667006</v>
@@ -4508,10 +4226,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C69" s="3">
         <v>80.9692094326019</v>
@@ -4546,10 +4264,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C70" s="3">
         <v>80.416993618011503</v>
@@ -4584,10 +4302,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="C71" s="3">
         <v>79.677554965019198</v>
@@ -4622,10 +4340,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="C72" s="3">
         <v>79.147142052650494</v>
@@ -4660,7 +4378,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -4698,10 +4416,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="C74" s="3">
         <v>77.273121595382705</v>
@@ -4736,7 +4454,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -4774,7 +4492,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>11</v>
@@ -4812,7 +4530,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
@@ -4850,10 +4568,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C78" s="3">
         <v>74.526080846786499</v>
@@ -4888,10 +4606,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3">
         <v>74.497975111007705</v>
@@ -4926,10 +4644,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="C80" s="3">
         <v>73.5875643491745</v>
@@ -4964,10 +4682,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="C81" s="3">
         <v>73.5426895618439</v>
@@ -5002,10 +4720,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3">
         <v>73.269164323806805</v>
@@ -5040,7 +4758,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>8</v>
@@ -5078,10 +4796,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C84" s="3">
         <v>72.570875763893099</v>
@@ -5116,10 +4834,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3">
         <v>71.777840733528095</v>
@@ -5154,10 +4872,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C86" s="3">
         <v>71.6554034948349</v>
@@ -5192,10 +4910,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3">
         <v>70.546946048736601</v>
@@ -5230,10 +4948,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="C88" s="3">
         <v>69.821463823318496</v>
@@ -5268,10 +4986,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C89" s="3">
         <v>69.349232435226398</v>
@@ -5306,10 +5024,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C90" s="3">
         <v>66.869977116584806</v>
@@ -5344,10 +5062,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C91" s="3">
         <v>65.872772574424701</v>
@@ -5382,10 +5100,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C92" s="3">
         <v>65.441394448280306</v>
@@ -5420,10 +5138,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C93" s="3">
         <v>63.794306159019499</v>
@@ -5458,10 +5176,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="C94" s="3">
         <v>62.451252341270397</v>
@@ -5496,10 +5214,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C95" s="3">
         <v>61.713009119033799</v>
@@ -5534,10 +5252,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C96" s="3">
         <v>61.525321483612103</v>
@@ -5572,10 +5290,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="C97" s="3">
         <v>61.179801821708701</v>
@@ -5610,10 +5328,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C98" s="3">
         <v>59.1573888063431</v>
@@ -5648,10 +5366,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C99" s="3">
         <v>58.335420966148398</v>
@@ -5686,10 +5404,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C100" s="3">
         <v>57.807432651519797</v>
@@ -5724,10 +5442,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C101" s="3">
         <v>57.308510780334501</v>
@@ -5762,10 +5480,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C102" s="3">
         <v>57.128367424011202</v>
@@ -5800,10 +5518,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C103" s="3">
         <v>56.857236623764003</v>
@@ -5838,10 +5556,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C104" s="3">
         <v>56.281315565109303</v>
@@ -5876,10 +5594,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C105" s="3">
         <v>55.428422331809998</v>
@@ -5914,10 +5632,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="C106" s="3">
         <v>54.011156916618297</v>
@@ -5952,10 +5670,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C107" s="3">
         <v>52.589957952499397</v>
@@ -5990,10 +5708,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="C108" s="3">
         <v>52.547485828399701</v>
@@ -6028,10 +5746,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="C109" s="3">
         <v>52.357853770256</v>
@@ -6066,10 +5784,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C110" s="3">
         <v>50.940915107727101</v>
@@ -6104,10 +5822,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="C111" s="3">
         <v>50.729643940925598</v>
@@ -6142,10 +5860,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C112" s="3">
         <v>49.753005027771003</v>
@@ -6180,10 +5898,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C113" s="3">
         <v>49.507183432578998</v>
@@ -6218,10 +5936,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C114" s="3">
         <v>49.395323991775498</v>
@@ -6256,10 +5974,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="C115" s="3">
         <v>48.509224414825397</v>
@@ -6294,10 +6012,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="C116" s="3">
         <v>48.458043575286901</v>
@@ -6332,10 +6050,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C117" s="3">
         <v>48.076146602630601</v>
@@ -6370,10 +6088,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="C118" s="3">
         <v>47.837721109390301</v>
@@ -6408,10 +6126,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C119" s="3">
         <v>47.428859472274802</v>
@@ -6446,10 +6164,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="C120" s="3">
         <v>47.155642867088297</v>
@@ -6484,10 +6202,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C121" s="3">
         <v>47.123016715049701</v>
@@ -6522,10 +6240,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C122" s="3">
         <v>46.9838529825211</v>
@@ -6560,10 +6278,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="C123" s="3">
         <v>46.6134437322617</v>
@@ -6598,10 +6316,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="C124" s="3">
         <v>46.380251169204698</v>
@@ -6636,10 +6354,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C125" s="3">
         <v>46.334880709648097</v>
@@ -6674,10 +6392,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C126" s="3">
         <v>45.436379432678201</v>
@@ -6712,10 +6430,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C127" s="3">
         <v>44.992029428482098</v>
@@ -6750,10 +6468,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C128" s="3">
         <v>44.597462296485901</v>
@@ -6788,10 +6506,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C129" s="3">
         <v>44.234230875968898</v>
@@ -6826,10 +6544,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="C130" s="3">
         <v>44.159826874733</v>
@@ -6864,10 +6582,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C131" s="3">
         <v>43.894822239875801</v>
@@ -6902,10 +6620,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C132" s="3">
         <v>43.489002466201804</v>
@@ -6940,10 +6658,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="C133" s="3">
         <v>43.4389344453812</v>
@@ -6978,10 +6696,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C134" s="3">
         <v>42.374000430107102</v>
@@ -7016,10 +6734,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C135" s="3">
         <v>41.914931774139397</v>
@@ -7054,10 +6772,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="C136" s="3">
         <v>41.2038074731827</v>
@@ -7092,10 +6810,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C137" s="3">
         <v>40.962170243263202</v>
@@ -7130,10 +6848,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C138" s="3">
         <v>40.660515069961498</v>
@@ -7168,10 +6886,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="C139" s="3">
         <v>40.474556088447599</v>
@@ -7206,10 +6924,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="C140" s="3">
         <v>40.359354496002197</v>
@@ -7244,10 +6962,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C141" s="3">
         <v>39.9646879434586</v>
@@ -7282,10 +7000,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C142" s="3">
         <v>39.624826669693</v>
@@ -7320,10 +7038,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="C143" s="3">
         <v>39.578970670700102</v>
@@ -7358,10 +7076,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="C144" s="3">
         <v>39.552825689315803</v>
@@ -7396,10 +7114,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C145" s="3">
         <v>39.323119997978203</v>
@@ -7434,10 +7152,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C146" s="3">
         <v>39.319191098213203</v>
@@ -7472,10 +7190,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C147" s="3">
         <v>39.222151398658802</v>
@@ -7510,10 +7228,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C148" s="3">
         <v>38.651167631149299</v>
@@ -7548,10 +7266,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C149" s="3">
         <v>38.3098273277283</v>
@@ -7586,10 +7304,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C150" s="3">
         <v>38.062314987182603</v>
@@ -7624,10 +7342,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C151" s="3">
         <v>38.004197478294401</v>
@@ -7662,10 +7380,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="C152" s="3">
         <v>37.224495768547101</v>
@@ -7700,10 +7418,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C153" s="3">
         <v>37.082196712493896</v>
@@ -7738,10 +7456,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C154" s="3">
         <v>36.997453689575202</v>
@@ -7776,10 +7494,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="C155" s="3">
         <v>36.9321866035461</v>
@@ -7814,10 +7532,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C156" s="3">
         <v>36.729199171066298</v>
@@ -7852,10 +7570,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C157" s="3">
         <v>36.563929677009597</v>
@@ -7890,10 +7608,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C158" s="3">
         <v>36.106947779655499</v>
@@ -7928,10 +7646,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="C159" s="3">
         <v>36.022140145301798</v>
@@ -7966,10 +7684,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C160" s="3">
         <v>35.901439666747997</v>
@@ -8004,10 +7722,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="C161" s="3">
         <v>35.478924393653898</v>
@@ -8042,10 +7760,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="C162" s="3">
         <v>35.2313361167908</v>
@@ -8080,10 +7798,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C163" s="3">
         <v>35.126913666725201</v>
@@ -8118,10 +7836,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C164" s="3">
         <v>35.038556933403001</v>
@@ -8156,10 +7874,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="C165" s="3">
         <v>34.995877385139501</v>
@@ -8194,10 +7912,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="C166" s="3">
         <v>34.791628241539001</v>
@@ -8232,10 +7950,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C167" s="3">
         <v>34.508003354072599</v>
@@ -8270,10 +7988,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C168" s="3">
         <v>34.4251245260239</v>
@@ -8308,10 +8026,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>422</v>
+        <v>337</v>
       </c>
       <c r="C169" s="3">
         <v>34.081505060195902</v>
@@ -8346,10 +8064,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C170" s="3">
         <v>33.415453910827601</v>
@@ -8384,10 +8102,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C171" s="3">
         <v>32.745885610580402</v>
@@ -8422,10 +8140,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="C172" s="3">
         <v>32.653862237930298</v>
@@ -8460,10 +8178,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="C173" s="3">
         <v>32.553032517433202</v>
@@ -8498,10 +8216,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="C174" s="3">
         <v>32.458106637001002</v>
@@ -8536,10 +8254,10 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C175" s="3">
         <v>32.297716856002801</v>
@@ -8574,10 +8292,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="C176" s="3">
         <v>32.292197823524504</v>
@@ -8612,10 +8330,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="C177" s="3">
         <v>31.676946997642499</v>
@@ -8650,10 +8368,10 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="C178" s="3">
         <v>31.207049846649198</v>
@@ -8688,10 +8406,10 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>423</v>
+        <v>338</v>
       </c>
       <c r="C179" s="3">
         <v>31.1639275550842</v>
@@ -8722,1792 +8440,6 @@
       </c>
       <c r="L179" s="3">
         <v>6.69775390625</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C180" s="3">
-        <v>31.1082699298859</v>
-      </c>
-      <c r="D180" s="4">
-        <v>15.21</v>
-      </c>
-      <c r="E180" s="5">
-        <v>1</v>
-      </c>
-      <c r="F180" s="5">
-        <v>7</v>
-      </c>
-      <c r="G180" s="5">
-        <v>7</v>
-      </c>
-      <c r="H180" s="5">
-        <v>18</v>
-      </c>
-      <c r="I180" s="6">
-        <v>2599752.8125</v>
-      </c>
-      <c r="J180" s="5">
-        <v>539</v>
-      </c>
-      <c r="K180" s="7">
-        <v>58.450120624660101</v>
-      </c>
-      <c r="L180" s="3">
-        <v>7.98681640625</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C181" s="3">
-        <v>31.104787230491599</v>
-      </c>
-      <c r="D181" s="4">
-        <v>13.17</v>
-      </c>
-      <c r="E181" s="5">
-        <v>1</v>
-      </c>
-      <c r="F181" s="5">
-        <v>4</v>
-      </c>
-      <c r="G181" s="5">
-        <v>4</v>
-      </c>
-      <c r="H181" s="5">
-        <v>13</v>
-      </c>
-      <c r="I181" s="6">
-        <v>7471707.2838541698</v>
-      </c>
-      <c r="J181" s="5">
-        <v>334</v>
-      </c>
-      <c r="K181" s="7">
-        <v>36.403021954659998</v>
-      </c>
-      <c r="L181" s="3">
-        <v>7.35693359375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C182" s="3">
-        <v>30.973522663116501</v>
-      </c>
-      <c r="D182" s="4">
-        <v>6.39</v>
-      </c>
-      <c r="E182" s="5">
-        <v>1</v>
-      </c>
-      <c r="F182" s="5">
-        <v>7</v>
-      </c>
-      <c r="G182" s="5">
-        <v>10</v>
-      </c>
-      <c r="H182" s="5">
-        <v>17</v>
-      </c>
-      <c r="I182" s="6">
-        <v>5869922.7760416698</v>
-      </c>
-      <c r="J182" s="5">
-        <v>1972</v>
-      </c>
-      <c r="K182" s="7">
-        <v>227.19891806466001</v>
-      </c>
-      <c r="L182" s="3">
-        <v>5.50341796875</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C183" s="3">
-        <v>30.947960495948799</v>
-      </c>
-      <c r="D183" s="4">
-        <v>37.22</v>
-      </c>
-      <c r="E183" s="5">
-        <v>2</v>
-      </c>
-      <c r="F183" s="5">
-        <v>2</v>
-      </c>
-      <c r="G183" s="5">
-        <v>5</v>
-      </c>
-      <c r="H183" s="5">
-        <v>17</v>
-      </c>
-      <c r="I183" s="6">
-        <v>8300348.0885416698</v>
-      </c>
-      <c r="J183" s="5">
-        <v>180</v>
-      </c>
-      <c r="K183" s="7">
-        <v>20.497694054659998</v>
-      </c>
-      <c r="L183" s="3">
-        <v>7.13720703125</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C184" s="3">
-        <v>30.745770096778902</v>
-      </c>
-      <c r="D184" s="4">
-        <v>13.65</v>
-      </c>
-      <c r="E184" s="5">
-        <v>1</v>
-      </c>
-      <c r="F184" s="5">
-        <v>4</v>
-      </c>
-      <c r="G184" s="5">
-        <v>4</v>
-      </c>
-      <c r="H184" s="5">
-        <v>15</v>
-      </c>
-      <c r="I184" s="6">
-        <v>7894778.4088541698</v>
-      </c>
-      <c r="J184" s="5">
-        <v>359</v>
-      </c>
-      <c r="K184" s="7">
-        <v>39.721841124660003</v>
-      </c>
-      <c r="L184" s="3">
-        <v>8.54345703125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C185" s="3">
-        <v>30.476140618324301</v>
-      </c>
-      <c r="D185" s="4">
-        <v>12.85</v>
-      </c>
-      <c r="E185" s="5">
-        <v>1</v>
-      </c>
-      <c r="F185" s="5">
-        <v>7</v>
-      </c>
-      <c r="G185" s="5">
-        <v>7</v>
-      </c>
-      <c r="H185" s="5">
-        <v>15</v>
-      </c>
-      <c r="I185" s="6">
-        <v>4173945.359375</v>
-      </c>
-      <c r="J185" s="5">
-        <v>825</v>
-      </c>
-      <c r="K185" s="7">
-        <v>90.5280091246604</v>
-      </c>
-      <c r="L185" s="3">
-        <v>5.99853515625</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C186" s="3">
-        <v>30.298923850059499</v>
-      </c>
-      <c r="D186" s="4">
-        <v>14.18</v>
-      </c>
-      <c r="E186" s="5">
-        <v>3</v>
-      </c>
-      <c r="F186" s="5">
-        <v>12</v>
-      </c>
-      <c r="G186" s="5">
-        <v>12</v>
-      </c>
-      <c r="H186" s="5">
-        <v>21</v>
-      </c>
-      <c r="I186" s="6">
-        <v>2869882.2604166698</v>
-      </c>
-      <c r="J186" s="5">
-        <v>917</v>
-      </c>
-      <c r="K186" s="7">
-        <v>102.42014361466001</v>
-      </c>
-      <c r="L186" s="3">
-        <v>6.80029296875</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C187" s="3">
-        <v>29.860255002975499</v>
-      </c>
-      <c r="D187" s="4">
-        <v>16.57</v>
-      </c>
-      <c r="E187" s="5">
-        <v>1</v>
-      </c>
-      <c r="F187" s="5">
-        <v>5</v>
-      </c>
-      <c r="G187" s="5">
-        <v>5</v>
-      </c>
-      <c r="H187" s="5">
-        <v>29</v>
-      </c>
-      <c r="I187" s="6">
-        <v>7571164.484375</v>
-      </c>
-      <c r="J187" s="5">
-        <v>338</v>
-      </c>
-      <c r="K187" s="7">
-        <v>38.404796134660003</v>
-      </c>
-      <c r="L187" s="3">
-        <v>6.60986328125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C188" s="3">
-        <v>29.700090289115899</v>
-      </c>
-      <c r="D188" s="4">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="E188" s="5">
-        <v>1</v>
-      </c>
-      <c r="F188" s="5">
-        <v>10</v>
-      </c>
-      <c r="G188" s="5">
-        <v>10</v>
-      </c>
-      <c r="H188" s="5">
-        <v>18</v>
-      </c>
-      <c r="I188" s="6">
-        <v>2761074.0755208302</v>
-      </c>
-      <c r="J188" s="5">
-        <v>1394</v>
-      </c>
-      <c r="K188" s="7">
-        <v>157.80512344466001</v>
-      </c>
-      <c r="L188" s="3">
-        <v>6.12548828125</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C189" s="3">
-        <v>29.662473678588899</v>
-      </c>
-      <c r="D189" s="4">
-        <v>14.39</v>
-      </c>
-      <c r="E189" s="5">
-        <v>1</v>
-      </c>
-      <c r="F189" s="5">
-        <v>1</v>
-      </c>
-      <c r="G189" s="5">
-        <v>4</v>
-      </c>
-      <c r="H189" s="5">
-        <v>16</v>
-      </c>
-      <c r="I189" s="6">
-        <v>8793698.9166666698</v>
-      </c>
-      <c r="J189" s="5">
-        <v>285</v>
-      </c>
-      <c r="K189" s="7">
-        <v>32.929779214660002</v>
-      </c>
-      <c r="L189" s="3">
-        <v>4.71630859375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C190" s="3">
-        <v>29.632288455963099</v>
-      </c>
-      <c r="D190" s="4">
-        <v>27.11</v>
-      </c>
-      <c r="E190" s="5">
-        <v>2</v>
-      </c>
-      <c r="F190" s="5">
-        <v>3</v>
-      </c>
-      <c r="G190" s="5">
-        <v>3</v>
-      </c>
-      <c r="H190" s="5">
-        <v>14</v>
-      </c>
-      <c r="I190" s="6">
-        <v>5172231.8151041698</v>
-      </c>
-      <c r="J190" s="5">
-        <v>166</v>
-      </c>
-      <c r="K190" s="7">
-        <v>18.490658674660001</v>
-      </c>
-      <c r="L190" s="3">
-        <v>8.08935546875</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C191" s="3">
-        <v>29.338630676269499</v>
-      </c>
-      <c r="D191" s="4">
-        <v>10.69</v>
-      </c>
-      <c r="E191" s="5">
-        <v>1</v>
-      </c>
-      <c r="F191" s="5">
-        <v>3</v>
-      </c>
-      <c r="G191" s="5">
-        <v>3</v>
-      </c>
-      <c r="H191" s="5">
-        <v>16</v>
-      </c>
-      <c r="I191" s="6">
-        <v>8202774.5364583302</v>
-      </c>
-      <c r="J191" s="5">
-        <v>318</v>
-      </c>
-      <c r="K191" s="7">
-        <v>35.363446674659997</v>
-      </c>
-      <c r="L191" s="3">
-        <v>8.82177734375</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C192" s="3">
-        <v>29.078124403953598</v>
-      </c>
-      <c r="D192" s="4">
-        <v>9.58</v>
-      </c>
-      <c r="E192" s="5">
-        <v>4</v>
-      </c>
-      <c r="F192" s="5">
-        <v>7</v>
-      </c>
-      <c r="G192" s="5">
-        <v>7</v>
-      </c>
-      <c r="H192" s="5">
-        <v>14</v>
-      </c>
-      <c r="I192" s="6">
-        <v>2447654.6458333302</v>
-      </c>
-      <c r="J192" s="5">
-        <v>1023</v>
-      </c>
-      <c r="K192" s="7">
-        <v>112.82388505466</v>
-      </c>
-      <c r="L192" s="3">
-        <v>5.49072265625</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C193" s="3">
-        <v>28.8302340507507</v>
-      </c>
-      <c r="D193" s="4">
-        <v>24.31</v>
-      </c>
-      <c r="E193" s="5">
-        <v>1</v>
-      </c>
-      <c r="F193" s="5">
-        <v>6</v>
-      </c>
-      <c r="G193" s="5">
-        <v>6</v>
-      </c>
-      <c r="H193" s="5">
-        <v>16</v>
-      </c>
-      <c r="I193" s="6">
-        <v>4831741.84375</v>
-      </c>
-      <c r="J193" s="5">
-        <v>255</v>
-      </c>
-      <c r="K193" s="7">
-        <v>27.826154404659999</v>
-      </c>
-      <c r="L193" s="3">
-        <v>8.10400390625</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C194" s="3">
-        <v>28.826028585433999</v>
-      </c>
-      <c r="D194" s="4">
-        <v>30.23</v>
-      </c>
-      <c r="E194" s="5">
-        <v>1</v>
-      </c>
-      <c r="F194" s="5">
-        <v>5</v>
-      </c>
-      <c r="G194" s="5">
-        <v>5</v>
-      </c>
-      <c r="H194" s="5">
-        <v>12</v>
-      </c>
-      <c r="I194" s="6">
-        <v>3989173.8385416698</v>
-      </c>
-      <c r="J194" s="5">
-        <v>215</v>
-      </c>
-      <c r="K194" s="7">
-        <v>24.577533484660002</v>
-      </c>
-      <c r="L194" s="3">
-        <v>6.91748046875</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C195" s="3">
-        <v>28.824417591094999</v>
-      </c>
-      <c r="D195" s="4">
-        <v>15.27</v>
-      </c>
-      <c r="E195" s="5">
-        <v>1</v>
-      </c>
-      <c r="F195" s="5">
-        <v>1</v>
-      </c>
-      <c r="G195" s="5">
-        <v>6</v>
-      </c>
-      <c r="H195" s="5">
-        <v>15</v>
-      </c>
-      <c r="I195" s="6">
-        <v>3653459.09375</v>
-      </c>
-      <c r="J195" s="5">
-        <v>406</v>
-      </c>
-      <c r="K195" s="7">
-        <v>46.124557814660101</v>
-      </c>
-      <c r="L195" s="3">
-        <v>5.47802734375</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C196" s="3">
-        <v>28.781990766525301</v>
-      </c>
-      <c r="D196" s="4">
-        <v>10.73</v>
-      </c>
-      <c r="E196" s="5">
-        <v>1</v>
-      </c>
-      <c r="F196" s="5">
-        <v>2</v>
-      </c>
-      <c r="G196" s="5">
-        <v>2</v>
-      </c>
-      <c r="H196" s="5">
-        <v>11</v>
-      </c>
-      <c r="I196" s="6">
-        <v>16225083.75</v>
-      </c>
-      <c r="J196" s="5">
-        <v>261</v>
-      </c>
-      <c r="K196" s="7">
-        <v>28.72263519466</v>
-      </c>
-      <c r="L196" s="3">
-        <v>7.67919921875</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C197" s="3">
-        <v>27.852322101593</v>
-      </c>
-      <c r="D197" s="4">
-        <v>19.73</v>
-      </c>
-      <c r="E197" s="5">
-        <v>1</v>
-      </c>
-      <c r="F197" s="5">
-        <v>4</v>
-      </c>
-      <c r="G197" s="5">
-        <v>4</v>
-      </c>
-      <c r="H197" s="5">
-        <v>10</v>
-      </c>
-      <c r="I197" s="6">
-        <v>9964222.0052083302</v>
-      </c>
-      <c r="J197" s="5">
-        <v>294</v>
-      </c>
-      <c r="K197" s="7">
-        <v>31.546547764660001</v>
-      </c>
-      <c r="L197" s="3">
-        <v>7.56201171875</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C198" s="3">
-        <v>27.829517245292699</v>
-      </c>
-      <c r="D198" s="4">
-        <v>6.69</v>
-      </c>
-      <c r="E198" s="5">
-        <v>2</v>
-      </c>
-      <c r="F198" s="5">
-        <v>10</v>
-      </c>
-      <c r="G198" s="5">
-        <v>13</v>
-      </c>
-      <c r="H198" s="5">
-        <v>18</v>
-      </c>
-      <c r="I198" s="6">
-        <v>2374143.5729166698</v>
-      </c>
-      <c r="J198" s="5">
-        <v>2602</v>
-      </c>
-      <c r="K198" s="7">
-        <v>277.99007100466099</v>
-      </c>
-      <c r="L198" s="3">
-        <v>5.73193359375</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C199" s="3">
-        <v>27.582269549369801</v>
-      </c>
-      <c r="D199" s="4">
-        <v>18.39</v>
-      </c>
-      <c r="E199" s="5">
-        <v>1</v>
-      </c>
-      <c r="F199" s="5">
-        <v>3</v>
-      </c>
-      <c r="G199" s="5">
-        <v>3</v>
-      </c>
-      <c r="H199" s="5">
-        <v>11</v>
-      </c>
-      <c r="I199" s="6">
-        <v>4417660.9479166698</v>
-      </c>
-      <c r="J199" s="5">
-        <v>261</v>
-      </c>
-      <c r="K199" s="7">
-        <v>26.90611395466</v>
-      </c>
-      <c r="L199" s="3">
-        <v>7.78173828125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C200" s="3">
-        <v>27.073702454567002</v>
-      </c>
-      <c r="D200" s="4">
-        <v>9.94</v>
-      </c>
-      <c r="E200" s="5">
-        <v>66</v>
-      </c>
-      <c r="F200" s="5">
-        <v>3</v>
-      </c>
-      <c r="G200" s="5">
-        <v>3</v>
-      </c>
-      <c r="H200" s="5">
-        <v>12</v>
-      </c>
-      <c r="I200" s="6">
-        <v>4185594.71875</v>
-      </c>
-      <c r="J200" s="5">
-        <v>362</v>
-      </c>
-      <c r="K200" s="7">
-        <v>40.434950254660002</v>
-      </c>
-      <c r="L200" s="3">
-        <v>5.84619140625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C201" s="3">
-        <v>26.941300868988002</v>
-      </c>
-      <c r="D201" s="4">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="E201" s="5">
-        <v>1</v>
-      </c>
-      <c r="F201" s="5">
-        <v>5</v>
-      </c>
-      <c r="G201" s="5">
-        <v>5</v>
-      </c>
-      <c r="H201" s="5">
-        <v>14</v>
-      </c>
-      <c r="I201" s="6">
-        <v>7194028.8463541698</v>
-      </c>
-      <c r="J201" s="5">
-        <v>241</v>
-      </c>
-      <c r="K201" s="7">
-        <v>26.905749344659998</v>
-      </c>
-      <c r="L201" s="3">
-        <v>5.17333984375</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C202" s="3">
-        <v>26.899563908577001</v>
-      </c>
-      <c r="D202" s="4">
-        <v>15.23</v>
-      </c>
-      <c r="E202" s="5">
-        <v>1</v>
-      </c>
-      <c r="F202" s="5">
-        <v>1</v>
-      </c>
-      <c r="G202" s="5">
-        <v>6</v>
-      </c>
-      <c r="H202" s="5">
-        <v>15</v>
-      </c>
-      <c r="I202" s="6">
-        <v>3653459.09375</v>
-      </c>
-      <c r="J202" s="5">
-        <v>407</v>
-      </c>
-      <c r="K202" s="7">
-        <v>46.3727803446601</v>
-      </c>
-      <c r="L202" s="3">
-        <v>5.47802734375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C203" s="3">
-        <v>26.635201692581202</v>
-      </c>
-      <c r="D203" s="4">
-        <v>7.99</v>
-      </c>
-      <c r="E203" s="5">
-        <v>1</v>
-      </c>
-      <c r="F203" s="5">
-        <v>3</v>
-      </c>
-      <c r="G203" s="5">
-        <v>3</v>
-      </c>
-      <c r="H203" s="5">
-        <v>18</v>
-      </c>
-      <c r="I203" s="6">
-        <v>3077375.171875</v>
-      </c>
-      <c r="J203" s="5">
-        <v>463</v>
-      </c>
-      <c r="K203" s="7">
-        <v>50.944405214660001</v>
-      </c>
-      <c r="L203" s="3">
-        <v>5.54150390625</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C204" s="3">
-        <v>26.6269484758377</v>
-      </c>
-      <c r="D204" s="4">
-        <v>23.68</v>
-      </c>
-      <c r="E204" s="5">
-        <v>2</v>
-      </c>
-      <c r="F204" s="5">
-        <v>3</v>
-      </c>
-      <c r="G204" s="5">
-        <v>3</v>
-      </c>
-      <c r="H204" s="5">
-        <v>10</v>
-      </c>
-      <c r="I204" s="6">
-        <v>4038518.4739583302</v>
-      </c>
-      <c r="J204" s="5">
-        <v>152</v>
-      </c>
-      <c r="K204" s="7">
-        <v>17.126975294659999</v>
-      </c>
-      <c r="L204" s="3">
-        <v>6.56591796875</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C205" s="3">
-        <v>26.328530430793801</v>
-      </c>
-      <c r="D205" s="4">
-        <v>14.33</v>
-      </c>
-      <c r="E205" s="5">
-        <v>3</v>
-      </c>
-      <c r="F205" s="5">
-        <v>10</v>
-      </c>
-      <c r="G205" s="5">
-        <v>10</v>
-      </c>
-      <c r="H205" s="5">
-        <v>20</v>
-      </c>
-      <c r="I205" s="6">
-        <v>3228600.921875</v>
-      </c>
-      <c r="J205" s="5">
-        <v>698</v>
-      </c>
-      <c r="K205" s="7">
-        <v>77.892872354660099</v>
-      </c>
-      <c r="L205" s="3">
-        <v>7.15185546875</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C206" s="3">
-        <v>26.0435082912445</v>
-      </c>
-      <c r="D206" s="4">
-        <v>22.54</v>
-      </c>
-      <c r="E206" s="5">
-        <v>1</v>
-      </c>
-      <c r="F206" s="5">
-        <v>5</v>
-      </c>
-      <c r="G206" s="5">
-        <v>5</v>
-      </c>
-      <c r="H206" s="5">
-        <v>19</v>
-      </c>
-      <c r="I206" s="6">
-        <v>6055388.19140625</v>
-      </c>
-      <c r="J206" s="5">
-        <v>213</v>
-      </c>
-      <c r="K206" s="7">
-        <v>23.262659444659999</v>
-      </c>
-      <c r="L206" s="3">
-        <v>9.96435546875</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C207" s="3">
-        <v>25.791508436202999</v>
-      </c>
-      <c r="D207" s="4">
-        <v>23.77</v>
-      </c>
-      <c r="E207" s="5">
-        <v>1</v>
-      </c>
-      <c r="F207" s="5">
-        <v>6</v>
-      </c>
-      <c r="G207" s="5">
-        <v>6</v>
-      </c>
-      <c r="H207" s="5">
-        <v>18</v>
-      </c>
-      <c r="I207" s="6">
-        <v>4716381.2486979198</v>
-      </c>
-      <c r="J207" s="5">
-        <v>244</v>
-      </c>
-      <c r="K207" s="7">
-        <v>25.896556414660001</v>
-      </c>
-      <c r="L207" s="3">
-        <v>8.10400390625</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C208" s="3">
-        <v>25.758029460907</v>
-      </c>
-      <c r="D208" s="4">
-        <v>23.15</v>
-      </c>
-      <c r="E208" s="5">
-        <v>1</v>
-      </c>
-      <c r="F208" s="5">
-        <v>8</v>
-      </c>
-      <c r="G208" s="5">
-        <v>8</v>
-      </c>
-      <c r="H208" s="5">
-        <v>19</v>
-      </c>
-      <c r="I208" s="6">
-        <v>5687535.0833333302</v>
-      </c>
-      <c r="J208" s="5">
-        <v>337</v>
-      </c>
-      <c r="K208" s="7">
-        <v>37.516463444659998</v>
-      </c>
-      <c r="L208" s="3">
-        <v>6.81494140625</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C209" s="3">
-        <v>25.185425639152498</v>
-      </c>
-      <c r="D209" s="4">
-        <v>28.61</v>
-      </c>
-      <c r="E209" s="5">
-        <v>1</v>
-      </c>
-      <c r="F209" s="5">
-        <v>6</v>
-      </c>
-      <c r="G209" s="5">
-        <v>6</v>
-      </c>
-      <c r="H209" s="5">
-        <v>11</v>
-      </c>
-      <c r="I209" s="6">
-        <v>4554960.8958333302</v>
-      </c>
-      <c r="J209" s="5">
-        <v>381</v>
-      </c>
-      <c r="K209" s="7">
-        <v>42.617320224659998</v>
-      </c>
-      <c r="L209" s="3">
-        <v>5.59228515625</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C210" s="3">
-        <v>24.9638862609863</v>
-      </c>
-      <c r="D210" s="4">
-        <v>7.09</v>
-      </c>
-      <c r="E210" s="5">
-        <v>1</v>
-      </c>
-      <c r="F210" s="5">
-        <v>4</v>
-      </c>
-      <c r="G210" s="5">
-        <v>4</v>
-      </c>
-      <c r="H210" s="5">
-        <v>15</v>
-      </c>
-      <c r="I210" s="6">
-        <v>4786653.0807291698</v>
-      </c>
-      <c r="J210" s="5">
-        <v>494</v>
-      </c>
-      <c r="K210" s="7">
-        <v>53.766984504660101</v>
-      </c>
-      <c r="L210" s="3">
-        <v>5.87158203125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C211" s="3">
-        <v>24.817728519439701</v>
-      </c>
-      <c r="D211" s="4">
-        <v>32.89</v>
-      </c>
-      <c r="E211" s="5">
-        <v>3</v>
-      </c>
-      <c r="F211" s="5">
-        <v>5</v>
-      </c>
-      <c r="G211" s="5">
-        <v>5</v>
-      </c>
-      <c r="H211" s="5">
-        <v>14</v>
-      </c>
-      <c r="I211" s="6">
-        <v>5153068.0572916698</v>
-      </c>
-      <c r="J211" s="5">
-        <v>149</v>
-      </c>
-      <c r="K211" s="7">
-        <v>16.82683520466</v>
-      </c>
-      <c r="L211" s="3">
-        <v>4.22119140625</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C212" s="3">
-        <v>24.5456318855286</v>
-      </c>
-      <c r="D212" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="E212" s="5">
-        <v>1</v>
-      </c>
-      <c r="F212" s="5">
-        <v>5</v>
-      </c>
-      <c r="G212" s="5">
-        <v>5</v>
-      </c>
-      <c r="H212" s="5">
-        <v>11</v>
-      </c>
-      <c r="I212" s="6">
-        <v>4001601.9635416698</v>
-      </c>
-      <c r="J212" s="5">
-        <v>563</v>
-      </c>
-      <c r="K212" s="7">
-        <v>61.680598474660101</v>
-      </c>
-      <c r="L212" s="3">
-        <v>8.07470703125</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C213" s="3">
-        <v>24.2086902856827</v>
-      </c>
-      <c r="D213" s="4">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="E213" s="5">
-        <v>1</v>
-      </c>
-      <c r="F213" s="5">
-        <v>6</v>
-      </c>
-      <c r="G213" s="5">
-        <v>6</v>
-      </c>
-      <c r="H213" s="5">
-        <v>12</v>
-      </c>
-      <c r="I213" s="6">
-        <v>3028541.484375</v>
-      </c>
-      <c r="J213" s="5">
-        <v>795</v>
-      </c>
-      <c r="K213" s="7">
-        <v>87.247547214660003</v>
-      </c>
-      <c r="L213" s="3">
-        <v>7.12255859375</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C214" s="3">
-        <v>23.90711581707</v>
-      </c>
-      <c r="D214" s="4">
-        <v>18.37</v>
-      </c>
-      <c r="E214" s="5">
-        <v>1</v>
-      </c>
-      <c r="F214" s="5">
-        <v>8</v>
-      </c>
-      <c r="G214" s="5">
-        <v>8</v>
-      </c>
-      <c r="H214" s="5">
-        <v>16</v>
-      </c>
-      <c r="I214" s="6">
-        <v>4676322.96875</v>
-      </c>
-      <c r="J214" s="5">
-        <v>539</v>
-      </c>
-      <c r="K214" s="7">
-        <v>58.178752534660099</v>
-      </c>
-      <c r="L214" s="3">
-        <v>7.63525390625</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C215" s="3">
-        <v>23.6882419586182</v>
-      </c>
-      <c r="D215" s="4">
-        <v>10.47</v>
-      </c>
-      <c r="E215" s="5">
-        <v>1</v>
-      </c>
-      <c r="F215" s="5">
-        <v>5</v>
-      </c>
-      <c r="G215" s="5">
-        <v>5</v>
-      </c>
-      <c r="H215" s="5">
-        <v>15</v>
-      </c>
-      <c r="I215" s="6">
-        <v>6379210.4358724002</v>
-      </c>
-      <c r="J215" s="5">
-        <v>592</v>
-      </c>
-      <c r="K215" s="7">
-        <v>67.525853544659995</v>
-      </c>
-      <c r="L215" s="3">
-        <v>4.60205078125</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C216" s="3">
-        <v>23.6870934963226</v>
-      </c>
-      <c r="D216" s="4">
-        <v>15.45</v>
-      </c>
-      <c r="E216" s="5">
-        <v>1</v>
-      </c>
-      <c r="F216" s="5">
-        <v>7</v>
-      </c>
-      <c r="G216" s="5">
-        <v>7</v>
-      </c>
-      <c r="H216" s="5">
-        <v>11</v>
-      </c>
-      <c r="I216" s="6">
-        <v>3527949.3450520802</v>
-      </c>
-      <c r="J216" s="5">
-        <v>602</v>
-      </c>
-      <c r="K216" s="7">
-        <v>65.982734864660003</v>
-      </c>
-      <c r="L216" s="3">
-        <v>5.92236328125</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C217" s="3">
-        <v>23.424378275871302</v>
-      </c>
-      <c r="D217" s="4">
-        <v>10.32</v>
-      </c>
-      <c r="E217" s="5">
-        <v>1</v>
-      </c>
-      <c r="F217" s="5">
-        <v>5</v>
-      </c>
-      <c r="G217" s="5">
-        <v>5</v>
-      </c>
-      <c r="H217" s="5">
-        <v>12</v>
-      </c>
-      <c r="I217" s="6">
-        <v>2885635.7864583302</v>
-      </c>
-      <c r="J217" s="5">
-        <v>504</v>
-      </c>
-      <c r="K217" s="7">
-        <v>55.957733044660102</v>
-      </c>
-      <c r="L217" s="3">
-        <v>8.52880859375</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C218" s="3">
-        <v>23.0507957935333</v>
-      </c>
-      <c r="D218" s="4">
-        <v>30.69</v>
-      </c>
-      <c r="E218" s="5">
-        <v>1</v>
-      </c>
-      <c r="F218" s="5">
-        <v>4</v>
-      </c>
-      <c r="G218" s="5">
-        <v>4</v>
-      </c>
-      <c r="H218" s="5">
-        <v>10</v>
-      </c>
-      <c r="I218" s="6">
-        <v>5677736.5598958302</v>
-      </c>
-      <c r="J218" s="5">
-        <v>189</v>
-      </c>
-      <c r="K218" s="7">
-        <v>19.878489314660001</v>
-      </c>
-      <c r="L218" s="3">
-        <v>6.78564453125</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C219" s="3">
-        <v>22.669839143753101</v>
-      </c>
-      <c r="D219" s="4">
-        <v>20.12</v>
-      </c>
-      <c r="E219" s="5">
-        <v>1</v>
-      </c>
-      <c r="F219" s="5">
-        <v>4</v>
-      </c>
-      <c r="G219" s="5">
-        <v>4</v>
-      </c>
-      <c r="H219" s="5">
-        <v>11</v>
-      </c>
-      <c r="I219" s="6">
-        <v>5646328.8645833302</v>
-      </c>
-      <c r="J219" s="5">
-        <v>328</v>
-      </c>
-      <c r="K219" s="7">
-        <v>35.793384954659999</v>
-      </c>
-      <c r="L219" s="3">
-        <v>8.00146484375</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C220" s="3">
-        <v>22.650102615356399</v>
-      </c>
-      <c r="D220" s="4">
-        <v>9.39</v>
-      </c>
-      <c r="E220" s="5">
-        <v>1</v>
-      </c>
-      <c r="F220" s="5">
-        <v>6</v>
-      </c>
-      <c r="G220" s="5">
-        <v>6</v>
-      </c>
-      <c r="H220" s="5">
-        <v>13</v>
-      </c>
-      <c r="I220" s="6">
-        <v>3690463.4895833302</v>
-      </c>
-      <c r="J220" s="5">
-        <v>1065</v>
-      </c>
-      <c r="K220" s="7">
-        <v>122.12759346465999</v>
-      </c>
-      <c r="L220" s="3">
-        <v>5.71923828125</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C221" s="3">
-        <v>22.5631567239761</v>
-      </c>
-      <c r="D221" s="4">
-        <v>13.69</v>
-      </c>
-      <c r="E221" s="5">
-        <v>1</v>
-      </c>
-      <c r="F221" s="5">
-        <v>2</v>
-      </c>
-      <c r="G221" s="5">
-        <v>2</v>
-      </c>
-      <c r="H221" s="5">
-        <v>8</v>
-      </c>
-      <c r="I221" s="6">
-        <v>5843126.11328125</v>
-      </c>
-      <c r="J221" s="5">
-        <v>168</v>
-      </c>
-      <c r="K221" s="7">
-        <v>17.479194614659999</v>
-      </c>
-      <c r="L221" s="3">
-        <v>5.49072265625</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C222" s="3">
-        <v>22.405692934989901</v>
-      </c>
-      <c r="D222" s="4">
-        <v>13.99</v>
-      </c>
-      <c r="E222" s="5">
-        <v>3</v>
-      </c>
-      <c r="F222" s="5">
-        <v>6</v>
-      </c>
-      <c r="G222" s="5">
-        <v>9</v>
-      </c>
-      <c r="H222" s="5">
-        <v>18</v>
-      </c>
-      <c r="I222" s="6">
-        <v>4874754.2044270802</v>
-      </c>
-      <c r="J222" s="5">
-        <v>586</v>
-      </c>
-      <c r="K222" s="7">
-        <v>69.369740984659998</v>
-      </c>
-      <c r="L222" s="3">
-        <v>6.26513671875</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C223" s="3">
-        <v>22.390084862708999</v>
-      </c>
-      <c r="D223" s="4">
-        <v>8.89</v>
-      </c>
-      <c r="E223" s="5">
-        <v>1</v>
-      </c>
-      <c r="F223" s="5">
-        <v>3</v>
-      </c>
-      <c r="G223" s="5">
-        <v>3</v>
-      </c>
-      <c r="H223" s="5">
-        <v>8</v>
-      </c>
-      <c r="I223" s="6">
-        <v>3470318.2291666698</v>
-      </c>
-      <c r="J223" s="5">
-        <v>461</v>
-      </c>
-      <c r="K223" s="7">
-        <v>49.941089664659998</v>
-      </c>
-      <c r="L223" s="3">
-        <v>4.81787109375</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C224" s="3">
-        <v>22.098691463470502</v>
-      </c>
-      <c r="D224" s="4">
-        <v>28.74</v>
-      </c>
-      <c r="E224" s="5">
-        <v>2</v>
-      </c>
-      <c r="F224" s="5">
-        <v>4</v>
-      </c>
-      <c r="G224" s="5">
-        <v>4</v>
-      </c>
-      <c r="H224" s="5">
-        <v>11</v>
-      </c>
-      <c r="I224" s="6">
-        <v>2978302.9661458302</v>
-      </c>
-      <c r="J224" s="5">
-        <v>254</v>
-      </c>
-      <c r="K224" s="7">
-        <v>28.588696614660002</v>
-      </c>
-      <c r="L224" s="3">
-        <v>4.99560546875</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C225" s="3">
-        <v>21.8696658611298</v>
-      </c>
-      <c r="D225" s="4">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="E225" s="5">
-        <v>3</v>
-      </c>
-      <c r="F225" s="5">
-        <v>5</v>
-      </c>
-      <c r="G225" s="5">
-        <v>5</v>
-      </c>
-      <c r="H225" s="5">
-        <v>20</v>
-      </c>
-      <c r="I225" s="6">
-        <v>5595811.5631510401</v>
-      </c>
-      <c r="J225" s="5">
-        <v>152</v>
-      </c>
-      <c r="K225" s="7">
-        <v>17.137672074659999</v>
-      </c>
-      <c r="L225" s="3">
-        <v>6.18896484375</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C226" s="3">
-        <v>21.859842777252201</v>
-      </c>
-      <c r="D226" s="4">
-        <v>15.88</v>
-      </c>
-      <c r="E226" s="5">
-        <v>1</v>
-      </c>
-      <c r="F226" s="5">
-        <v>7</v>
-      </c>
-      <c r="G226" s="5">
-        <v>7</v>
-      </c>
-      <c r="H226" s="5">
-        <v>20</v>
-      </c>
-      <c r="I226" s="6">
-        <v>6101284.609375</v>
-      </c>
-      <c r="J226" s="5">
-        <v>466</v>
-      </c>
-      <c r="K226" s="7">
-        <v>51.679515844660003</v>
-      </c>
-      <c r="L226" s="3">
-        <v>8.32373046875</v>
       </c>
     </row>
   </sheetData>
